--- a/full/sliding_window_results_window_4.xlsx
+++ b/full/sliding_window_results_window_4.xlsx
@@ -468,13 +468,13 @@
         <v>30.21</v>
       </c>
       <c r="C2" t="n">
-        <v>30.32526985051462</v>
+        <v>30.60097018485807</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1152698505146148</v>
+        <v>0.3909701848580696</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01328713843766164</v>
+        <v>0.1528576854479531</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>30.48</v>
       </c>
       <c r="C3" t="n">
-        <v>31.21248912017882</v>
+        <v>31.52501331295483</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7324891201788191</v>
+        <v>1.045013312954826</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5365403111803404</v>
+        <v>1.09205282425282</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>30.95</v>
       </c>
       <c r="C4" t="n">
-        <v>32.18403448080772</v>
+        <v>32.48088286125436</v>
       </c>
       <c r="D4" t="n">
-        <v>1.234034480807725</v>
+        <v>1.530882861254366</v>
       </c>
       <c r="E4" t="n">
-        <v>1.522841099822393</v>
+        <v>2.343602334882354</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>31.38</v>
       </c>
       <c r="C5" t="n">
-        <v>32.81022994577803</v>
+        <v>33.00067920341891</v>
       </c>
       <c r="D5" t="n">
-        <v>1.430229945778027</v>
+        <v>1.620679203418913</v>
       </c>
       <c r="E5" t="n">
-        <v>2.045557697800219</v>
+        <v>2.626601080394562</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>32.28</v>
       </c>
       <c r="C6" t="n">
-        <v>33.85156736985915</v>
+        <v>33.94681641172357</v>
       </c>
       <c r="D6" t="n">
-        <v>1.571567369859146</v>
+        <v>1.666816411723573</v>
       </c>
       <c r="E6" t="n">
-        <v>2.469823998005994</v>
+        <v>2.778276950391048</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>33.1</v>
       </c>
       <c r="C7" t="n">
-        <v>34.53363190548824</v>
+        <v>34.31562847858815</v>
       </c>
       <c r="D7" t="n">
-        <v>1.433631905488234</v>
+        <v>1.215628478588151</v>
       </c>
       <c r="E7" t="n">
-        <v>2.055300440433824</v>
+        <v>1.477752597954543</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>34.4</v>
       </c>
       <c r="C8" t="n">
-        <v>35.9727611045478</v>
+        <v>35.97339722158411</v>
       </c>
       <c r="D8" t="n">
-        <v>1.572761104547801</v>
+        <v>1.573397221584109</v>
       </c>
       <c r="E8" t="n">
-        <v>2.47357749197842</v>
+        <v>2.475578816888595</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>36.3</v>
       </c>
       <c r="C9" t="n">
-        <v>37.72682122915314</v>
+        <v>37.94477884110101</v>
       </c>
       <c r="D9" t="n">
-        <v>1.426821229153141</v>
+        <v>1.644778841101015</v>
       </c>
       <c r="E9" t="n">
-        <v>2.035818819962081</v>
+        <v>2.705297436133598</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>38.5</v>
       </c>
       <c r="C10" t="n">
-        <v>40.03985673920119</v>
+        <v>40.71866273570352</v>
       </c>
       <c r="D10" t="n">
-        <v>1.539856739201191</v>
+        <v>2.218662735703518</v>
       </c>
       <c r="E10" t="n">
-        <v>2.371158777263326</v>
+        <v>4.922464334799417</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>40.1</v>
       </c>
       <c r="C11" t="n">
-        <v>42.09220583463934</v>
+        <v>42.45223226889152</v>
       </c>
       <c r="D11" t="n">
-        <v>1.992205834639336</v>
+        <v>2.35223226889152</v>
       </c>
       <c r="E11" t="n">
-        <v>3.968884087571012</v>
+        <v>5.532996646814546</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>41.5</v>
       </c>
       <c r="C12" t="n">
-        <v>43.39663689287854</v>
+        <v>43.69311530296098</v>
       </c>
       <c r="D12" t="n">
-        <v>1.89663689287854</v>
+        <v>2.193115302960976</v>
       </c>
       <c r="E12" t="n">
-        <v>3.597231503427962</v>
+        <v>4.809754732081614</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>43.7</v>
       </c>
       <c r="C13" t="n">
-        <v>45.85446570272016</v>
+        <v>46.69288421269283</v>
       </c>
       <c r="D13" t="n">
-        <v>2.154465702720159</v>
+        <v>2.992884212692829</v>
       </c>
       <c r="E13" t="n">
-        <v>4.64172246419747</v>
+        <v>8.957355910585974</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>48.1</v>
       </c>
       <c r="C14" t="n">
-        <v>50.99308109872595</v>
+        <v>50.44637264142568</v>
       </c>
       <c r="D14" t="n">
-        <v>2.893081098725951</v>
+        <v>2.346372641425681</v>
       </c>
       <c r="E14" t="n">
-        <v>8.369918243805353</v>
+        <v>5.505464572430928</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>53</v>
       </c>
       <c r="C15" t="n">
-        <v>55.93499995359269</v>
+        <v>55.89622846096007</v>
       </c>
       <c r="D15" t="n">
-        <v>2.934999953592694</v>
+        <v>2.896228460960074</v>
       </c>
       <c r="E15" t="n">
-        <v>8.614224727589116</v>
+        <v>8.388139298075162</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>56.1</v>
       </c>
       <c r="C16" t="n">
-        <v>57.08538347686995</v>
+        <v>57.0431241818084</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9853834768699485</v>
+        <v>0.9431241818084004</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9709805964883084</v>
+        <v>0.8894832223117647</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>60</v>
       </c>
       <c r="C17" t="n">
-        <v>61.56021121919667</v>
+        <v>62.07536244160622</v>
       </c>
       <c r="D17" t="n">
-        <v>1.560211219196674</v>
+        <v>2.075362441606217</v>
       </c>
       <c r="E17" t="n">
-        <v>2.434259048507172</v>
+        <v>4.307129264029717</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>63.9</v>
       </c>
       <c r="C18" t="n">
-        <v>64.05087088720305</v>
+        <v>64.34002702544851</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1508708872030482</v>
+        <v>0.4400270254485079</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02276202460543489</v>
+        <v>0.1936237831250618</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>70.59999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>72.74055484634141</v>
+        <v>73.25136019666715</v>
       </c>
       <c r="D19" t="n">
-        <v>2.140554846341416</v>
+        <v>2.651360196667156</v>
       </c>
       <c r="E19" t="n">
-        <v>4.581975050195725</v>
+        <v>7.0297108924709</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>80.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>84.53185470493813</v>
+        <v>85.1031353364351</v>
       </c>
       <c r="D20" t="n">
-        <v>3.631854704938121</v>
+        <v>4.203135336435096</v>
       </c>
       <c r="E20" t="n">
-        <v>13.19036859778116</v>
+        <v>17.66634665638937</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>89.09999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>90.4102833159094</v>
+        <v>90.96854231071308</v>
       </c>
       <c r="D21" t="n">
-        <v>1.310283315909402</v>
+        <v>1.868542310713082</v>
       </c>
       <c r="E21" t="n">
-        <v>1.716842367950537</v>
+        <v>3.491450366924982</v>
       </c>
     </row>
     <row r="22">
@@ -808,11 +808,11 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>32.70720967854399</v>
+        <v>37.86921363079608</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>67.63307448700351</v>
+        <v>87.3459394063849</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>3.381653724350175</v>
+        <v>4.367296970319245</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_4.xlsx
+++ b/full/sliding_window_results_window_4.xlsx
@@ -468,13 +468,13 @@
         <v>29.37</v>
       </c>
       <c r="C2" t="n">
-        <v>28.89001476677979</v>
+        <v>29.06111334257831</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4799852332202157</v>
+        <v>-0.3088866574216951</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2303858241094648</v>
+        <v>0.09541096713314762</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.54</v>
       </c>
       <c r="C3" t="n">
-        <v>28.75143858845029</v>
+        <v>28.47071234469865</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7885614115497042</v>
+        <v>-1.069287655301345</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6218290997852619</v>
+        <v>1.143376089779848</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.55</v>
       </c>
       <c r="C4" t="n">
-        <v>29.89835923284729</v>
+        <v>28.28848359845321</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3483592328472938</v>
+        <v>-1.261516401546789</v>
       </c>
       <c r="E4" t="n">
-        <v>0.121354155109955</v>
+        <v>1.59142363137156</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.75</v>
       </c>
       <c r="C5" t="n">
-        <v>29.63077792719183</v>
+        <v>29.08335461496617</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1192220728081672</v>
+        <v>-0.6666453850338314</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01421390264467592</v>
+        <v>0.4444160693869054</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.84</v>
       </c>
       <c r="C6" t="n">
-        <v>30.5128942614997</v>
+        <v>30.03117283040773</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6728942614997031</v>
+        <v>0.1911728304077265</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4527866871592308</v>
+        <v>0.03654705108610135</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.81</v>
       </c>
       <c r="C7" t="n">
-        <v>30.38213655779985</v>
+        <v>30.03955669991785</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5721365577998547</v>
+        <v>0.229556699917854</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3273402407710665</v>
+        <v>0.05269627847717567</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.92</v>
       </c>
       <c r="C8" t="n">
-        <v>30.20936628021572</v>
+        <v>30.51717706393323</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2893662802157166</v>
+        <v>0.597177063933227</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08373284412588064</v>
+        <v>0.3566204456879095</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.98</v>
       </c>
       <c r="C9" t="n">
-        <v>29.55296524203012</v>
+        <v>29.93871922786692</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4270347579698814</v>
+        <v>-0.04128077213308146</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1823586845143952</v>
+        <v>0.001704102147903394</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.04</v>
       </c>
       <c r="C10" t="n">
-        <v>29.82614341319439</v>
+        <v>30.0226229808443</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2138565868056048</v>
+        <v>-0.01737701915570256</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04573463972014319</v>
+        <v>0.0003019607947376536</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.21</v>
       </c>
       <c r="C11" t="n">
-        <v>29.36463635328873</v>
+        <v>29.85382509620436</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.8453636467112702</v>
+        <v>-0.3561749037956403</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7146396951809773</v>
+        <v>0.1268605620938336</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.22</v>
       </c>
       <c r="C12" t="n">
-        <v>29.76049113547246</v>
+        <v>29.65558126129587</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4595088645275425</v>
+        <v>-0.5644187387041306</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2111483965793914</v>
+        <v>0.3185685126003617</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.38</v>
       </c>
       <c r="C13" t="n">
-        <v>29.57582474233583</v>
+        <v>30.29504831114055</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8041752576641734</v>
+        <v>-0.08495168885944437</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6466978450392397</v>
+        <v>0.007216789440071846</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.44</v>
       </c>
       <c r="C14" t="n">
-        <v>30.25487101437291</v>
+        <v>30.47089791408501</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1851289856270917</v>
+        <v>0.03089791408501341</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03427274131931592</v>
+        <v>0.0009546810948048702</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.48</v>
       </c>
       <c r="C15" t="n">
-        <v>30.24752593861029</v>
+        <v>30.50014159004855</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2324740613897056</v>
+        <v>0.02014159004854932</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05404418921902461</v>
+        <v>0.000405683649683821</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.69</v>
       </c>
       <c r="C16" t="n">
-        <v>30.50795299579393</v>
+        <v>31.26975441792585</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1820470042060691</v>
+        <v>0.5797544179258516</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03314111174040454</v>
+        <v>0.336115185104543</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.75</v>
       </c>
       <c r="C17" t="n">
-        <v>30.14916819334217</v>
+        <v>30.80844435579825</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.6008318066578333</v>
+        <v>0.05844435579825102</v>
       </c>
       <c r="E17" t="n">
-        <v>0.360998859891716</v>
+        <v>0.003415742724672558</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.94</v>
       </c>
       <c r="C18" t="n">
-        <v>30.54755445311316</v>
+        <v>31.72773471084909</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3924455468868437</v>
+        <v>0.7877347108490902</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1540135072713139</v>
+        <v>0.6205259746764997</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.95</v>
       </c>
       <c r="C19" t="n">
-        <v>30.83058250184288</v>
+        <v>31.17942847998682</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1194174981571194</v>
+        <v>0.2294284799868187</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01426053886610562</v>
+        <v>0.05263742742906207</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.02</v>
       </c>
       <c r="C20" t="n">
-        <v>31.44412689269855</v>
+        <v>31.70892991584662</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4241268926985455</v>
+        <v>0.688929915846618</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1798836211101235</v>
+        <v>0.4746244289484282</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.12</v>
       </c>
       <c r="C21" t="n">
-        <v>31.82781453430661</v>
+        <v>31.90208559243378</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7078145343066069</v>
+        <v>0.7820855924337771</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5010014149756788</v>
+        <v>0.611657873892492</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.28</v>
       </c>
       <c r="C22" t="n">
-        <v>31.96328579171908</v>
+        <v>32.45973717409251</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6832857917190793</v>
+        <v>1.179737174092509</v>
       </c>
       <c r="E22" t="n">
-        <v>0.466879473165169</v>
+        <v>1.391779799935778</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.38</v>
       </c>
       <c r="C23" t="n">
-        <v>31.78113201892211</v>
+        <v>31.85781058353992</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4011320189221124</v>
+        <v>0.4778105835399167</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1609068966045299</v>
+        <v>0.2283029537427557</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.58</v>
       </c>
       <c r="C24" t="n">
-        <v>32.160315343314</v>
+        <v>32.28776501006389</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5803153433140054</v>
+        <v>0.7077650100638877</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3367658976856519</v>
+        <v>0.5009313094707351</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.65</v>
       </c>
       <c r="C25" t="n">
-        <v>32.00960149047535</v>
+        <v>31.795646922987</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3596014904753559</v>
+        <v>0.1456469229869981</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1293132319520975</v>
+        <v>0.02121302617558056</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.88</v>
       </c>
       <c r="C26" t="n">
-        <v>32.63924261539053</v>
+        <v>32.78592873571744</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7592426153905301</v>
+        <v>0.9059287357174419</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5764493490250524</v>
+        <v>0.8207068741986028</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.28</v>
       </c>
       <c r="C27" t="n">
-        <v>32.54260657892653</v>
+        <v>32.75140148574432</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2626065789265297</v>
+        <v>0.4714014857443161</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06896221529549569</v>
+        <v>0.2222193607619486</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.45</v>
       </c>
       <c r="C28" t="n">
-        <v>32.63701460952016</v>
+        <v>32.28667916453107</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1870146095201619</v>
+        <v>-0.1633208354689302</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03497446417397863</v>
+        <v>0.02667369529826936</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.85</v>
       </c>
       <c r="C29" t="n">
-        <v>32.90057566603382</v>
+        <v>33.77931662779437</v>
       </c>
       <c r="D29" t="n">
-        <v>0.05057566603382213</v>
+        <v>0.9293166277943641</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00255789799476471</v>
+        <v>0.8636293946950886</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.9</v>
       </c>
       <c r="C30" t="n">
-        <v>33.03819570847567</v>
+        <v>32.6181679002533</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1381957084756706</v>
+        <v>-0.2818320997467012</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01909805384109255</v>
+        <v>0.07942933244763453</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.1</v>
       </c>
       <c r="C31" t="n">
-        <v>33.09098749567925</v>
+        <v>32.92095187517251</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.009012504320750736</v>
+        <v>-0.1790481248274887</v>
       </c>
       <c r="E31" t="n">
-        <v>8.122523413155069e-05</v>
+        <v>0.03205823100423996</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.4</v>
       </c>
       <c r="C32" t="n">
-        <v>33.90732008781475</v>
+        <v>33.56936814496778</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5073200878147475</v>
+        <v>0.169368144967784</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2573736715003631</v>
+        <v>0.02868556852982828</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.7</v>
       </c>
       <c r="C33" t="n">
-        <v>33.87702641505651</v>
+        <v>33.8643056819737</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1770264150565097</v>
+        <v>0.1643056819737012</v>
       </c>
       <c r="E33" t="n">
-        <v>0.03133835162775966</v>
+        <v>0.02699635712884304</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.1</v>
       </c>
       <c r="C34" t="n">
-        <v>34.03465604421379</v>
+        <v>34.52482003942425</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.06534395578621144</v>
+        <v>0.4248200394242474</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004269832557790355</v>
+        <v>0.1804720658964191</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.4</v>
       </c>
       <c r="C35" t="n">
-        <v>34.22302632320909</v>
+        <v>34.44874248754216</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.176973676790908</v>
+        <v>0.04874248754216381</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03131968227689278</v>
+        <v>0.002375830091797995</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.9</v>
       </c>
       <c r="C36" t="n">
-        <v>34.82030886764005</v>
+        <v>35.08705449938859</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0796911323599474</v>
+        <v>0.1870544993885872</v>
       </c>
       <c r="E36" t="n">
-        <v>0.006350676576810656</v>
+        <v>0.03498938574151497</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>35.3</v>
       </c>
       <c r="C37" t="n">
-        <v>35.83708905116644</v>
+        <v>35.12051217537368</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5370890511664399</v>
+        <v>-0.179487824626321</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2884646488828667</v>
+        <v>0.03221587918908895</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>35.7</v>
       </c>
       <c r="C38" t="n">
-        <v>36.2456970187278</v>
+        <v>35.47297676200688</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5456970187277932</v>
+        <v>-0.227023237993123</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2977852362484015</v>
+        <v>0.05153955058888215</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>36.3</v>
       </c>
       <c r="C39" t="n">
-        <v>36.50749343515574</v>
+        <v>35.67625688893011</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2074934351557403</v>
+        <v>-0.6237431110698921</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04305352563272938</v>
+        <v>0.3890554686071477</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>36.8</v>
       </c>
       <c r="C40" t="n">
-        <v>37.04373366181021</v>
+        <v>36.07186189172979</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2437336618102108</v>
+        <v>-0.7281381082702083</v>
       </c>
       <c r="E40" t="n">
-        <v>0.05940609789941423</v>
+        <v>0.5301851047153175</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>37.3</v>
       </c>
       <c r="C41" t="n">
-        <v>37.11686272164241</v>
+        <v>36.74367428201054</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1831372783575915</v>
+        <v>-0.5563257179894592</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03353926272422596</v>
+        <v>0.3094983044964872</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>37.9</v>
       </c>
       <c r="C42" t="n">
-        <v>37.91988778998029</v>
+        <v>38.30919573659418</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01988778998029517</v>
+        <v>0.4091957365941781</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0003955241903003288</v>
+        <v>0.167441150846852</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>38.5</v>
       </c>
       <c r="C43" t="n">
-        <v>38.46681989058308</v>
+        <v>38.66394966250266</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.03318010941691796</v>
+        <v>0.1639496625026595</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001100919660918648</v>
+        <v>0.02687949183473596</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>38.9</v>
       </c>
       <c r="C44" t="n">
-        <v>38.82259872457563</v>
+        <v>38.88523822790722</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.07740127542436426</v>
+        <v>-0.01476177209278262</v>
       </c>
       <c r="E44" t="n">
-        <v>0.005990957437318294</v>
+        <v>0.0002179099153192558</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>39.4</v>
       </c>
       <c r="C45" t="n">
-        <v>39.21682565764348</v>
+        <v>39.16660625984799</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1831743423565158</v>
+        <v>-0.2333937401520103</v>
       </c>
       <c r="E45" t="n">
-        <v>0.03355283969774204</v>
+        <v>0.05447263794214411</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>39.9</v>
       </c>
       <c r="C46" t="n">
-        <v>39.40256336554837</v>
+        <v>39.91002835172897</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.4974366344516312</v>
+        <v>0.01002835172896965</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2474432052945658</v>
+        <v>0.0001005678383999286</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.1</v>
       </c>
       <c r="C47" t="n">
-        <v>39.71756715083095</v>
+        <v>39.79467645854881</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.3824328491690494</v>
+        <v>-0.3053235414511875</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1462548841235569</v>
+        <v>0.09322246496429498</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.6</v>
       </c>
       <c r="C48" t="n">
-        <v>39.94794240855921</v>
+        <v>40.14733291543243</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.6520575914407871</v>
+        <v>-0.4526670845675724</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4251791025555605</v>
+        <v>0.2049074894509058</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.9</v>
       </c>
       <c r="C49" t="n">
-        <v>40.25461080979261</v>
+        <v>40.46751621929954</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.6453891902073892</v>
+        <v>-0.4324837807004585</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4165272068365495</v>
+        <v>0.1870422205689622</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.2</v>
       </c>
       <c r="C50" t="n">
-        <v>41.20170555541303</v>
+        <v>41.47265485714376</v>
       </c>
       <c r="D50" t="n">
-        <v>0.001705555413025195</v>
+        <v>0.2726548571437561</v>
       </c>
       <c r="E50" t="n">
-        <v>2.908919266899543e-06</v>
+        <v>0.07434067112408208</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.5</v>
       </c>
       <c r="C51" t="n">
-        <v>41.43320693910871</v>
+        <v>40.6695322347838</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.06679306089128545</v>
+        <v>-0.8304677652161985</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004461312983226965</v>
+        <v>0.6896767090631869</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-0.2254557378848219</v>
+        <v>1.284493606314264</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>9.11363655173159</v>
+        <v>13.54673826378459</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1822727310346318</v>
+        <v>0.2709347652756917</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_4.xlsx
+++ b/full/sliding_window_results_window_4.xlsx
@@ -468,13 +468,13 @@
         <v>29.37</v>
       </c>
       <c r="C2" t="n">
-        <v>29.06111334257831</v>
+        <v>28.84443239150406</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3088866574216951</v>
+        <v>-0.5255676084959369</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09541096713314762</v>
+        <v>0.2762213111001384</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.54</v>
       </c>
       <c r="C3" t="n">
-        <v>28.47071234469865</v>
+        <v>29.04879130937184</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.069287655301345</v>
+        <v>-0.4912086906281559</v>
       </c>
       <c r="E3" t="n">
-        <v>1.143376089779848</v>
+        <v>0.2412859777486273</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.55</v>
       </c>
       <c r="C4" t="n">
-        <v>28.28848359845321</v>
+        <v>28.47224708949605</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.261516401546789</v>
+        <v>-1.07775291050395</v>
       </c>
       <c r="E4" t="n">
-        <v>1.59142363137156</v>
+        <v>1.161551336099735</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.75</v>
       </c>
       <c r="C5" t="n">
-        <v>29.08335461496617</v>
+        <v>29.2989892953209</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6666453850338314</v>
+        <v>-0.4510107046790992</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4444160693869054</v>
+        <v>0.2034106557351376</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.84</v>
       </c>
       <c r="C6" t="n">
-        <v>30.03117283040773</v>
+        <v>30.13510134947209</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1911728304077265</v>
+        <v>0.2951013494720947</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03654705108610135</v>
+        <v>0.08708480646025134</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.81</v>
       </c>
       <c r="C7" t="n">
-        <v>30.03955669991785</v>
+        <v>30.40673323534551</v>
       </c>
       <c r="D7" t="n">
-        <v>0.229556699917854</v>
+        <v>0.596733235345507</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05269627847717567</v>
+        <v>0.3560905541659163</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.92</v>
       </c>
       <c r="C8" t="n">
-        <v>30.51717706393323</v>
+        <v>31.51125945391331</v>
       </c>
       <c r="D8" t="n">
-        <v>0.597177063933227</v>
+        <v>1.59125945391331</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3566204456879095</v>
+        <v>2.532106649668484</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.98</v>
       </c>
       <c r="C9" t="n">
-        <v>29.93871922786692</v>
+        <v>30.39166779290871</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.04128077213308146</v>
+        <v>0.4116677929087054</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001704102147903394</v>
+        <v>0.1694703717183247</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.04</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0226229808443</v>
+        <v>29.83554248324082</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01737701915570256</v>
+        <v>-0.2044575167591773</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0003019607947376536</v>
+        <v>0.04180287615932928</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.21</v>
       </c>
       <c r="C11" t="n">
-        <v>29.85382509620436</v>
+        <v>29.475613037933</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3561749037956403</v>
+        <v>-0.7343869620669992</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1268605620938336</v>
+        <v>0.5393242100539961</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.22</v>
       </c>
       <c r="C12" t="n">
-        <v>29.65558126129587</v>
+        <v>29.42990311504995</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5644187387041306</v>
+        <v>-0.7900968849500529</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3185685126003617</v>
+        <v>0.6242530876077772</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.38</v>
       </c>
       <c r="C13" t="n">
-        <v>30.29504831114055</v>
+        <v>30.01762340053315</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.08495168885944437</v>
+        <v>-0.3623765994668524</v>
       </c>
       <c r="E13" t="n">
-        <v>0.007216789440071846</v>
+        <v>0.1313167998411596</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.44</v>
       </c>
       <c r="C14" t="n">
-        <v>30.47089791408501</v>
+        <v>30.17250046387866</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03089791408501341</v>
+        <v>-0.2674995361213455</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0009546810948048702</v>
+        <v>0.07155600182513501</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.48</v>
       </c>
       <c r="C15" t="n">
-        <v>30.50014159004855</v>
+        <v>30.43142600127064</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02014159004854932</v>
+        <v>-0.0485739987293563</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000405683649683821</v>
+        <v>0.002359433352559508</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.69</v>
       </c>
       <c r="C16" t="n">
-        <v>31.26975441792585</v>
+        <v>31.06219932137456</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5797544179258516</v>
+        <v>0.3721993213745627</v>
       </c>
       <c r="E16" t="n">
-        <v>0.336115185104543</v>
+        <v>0.138532334831685</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.75</v>
       </c>
       <c r="C17" t="n">
-        <v>30.80844435579825</v>
+        <v>30.91290018647103</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05844435579825102</v>
+        <v>0.1629001864710276</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003415742724672558</v>
+        <v>0.02653647075229555</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.94</v>
       </c>
       <c r="C18" t="n">
-        <v>31.72773471084909</v>
+        <v>31.71108018651416</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7877347108490902</v>
+        <v>0.7710801865141583</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6205259746764997</v>
+        <v>0.5945646540347092</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.95</v>
       </c>
       <c r="C19" t="n">
-        <v>31.17942847998682</v>
+        <v>31.30334133364107</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2294284799868187</v>
+        <v>0.3533413336410725</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05263742742906207</v>
+        <v>0.1248500980592517</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.02</v>
       </c>
       <c r="C20" t="n">
-        <v>31.70892991584662</v>
+        <v>31.59747167494887</v>
       </c>
       <c r="D20" t="n">
-        <v>0.688929915846618</v>
+        <v>0.5774716749488711</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4746244289484282</v>
+        <v>0.3334735353682546</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.12</v>
       </c>
       <c r="C21" t="n">
-        <v>31.90208559243378</v>
+        <v>31.68655281230452</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7820855924337771</v>
+        <v>0.5665528123045185</v>
       </c>
       <c r="E21" t="n">
-        <v>0.611657873892492</v>
+        <v>0.320982089130159</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.28</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45973717409251</v>
+        <v>32.21713465211471</v>
       </c>
       <c r="D22" t="n">
-        <v>1.179737174092509</v>
+        <v>0.9371346521147075</v>
       </c>
       <c r="E22" t="n">
-        <v>1.391779799935778</v>
+        <v>0.8782213561941538</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.38</v>
       </c>
       <c r="C23" t="n">
-        <v>31.85781058353992</v>
+        <v>32.3661729188649</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4778105835399167</v>
+        <v>0.9861729188648987</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2283029537427557</v>
+        <v>0.972537025902514</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.58</v>
       </c>
       <c r="C24" t="n">
-        <v>32.28776501006389</v>
+        <v>32.88649103800541</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7077650100638877</v>
+        <v>1.306491038005412</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5009313094707351</v>
+        <v>1.706918832388458</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.65</v>
       </c>
       <c r="C25" t="n">
-        <v>31.795646922987</v>
+        <v>31.66498199413322</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1456469229869981</v>
+        <v>0.01498199413322254</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02121302617558056</v>
+        <v>0.0002244601482079147</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.88</v>
       </c>
       <c r="C26" t="n">
-        <v>32.78592873571744</v>
+        <v>32.53820959790483</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9059287357174419</v>
+        <v>0.6582095979048326</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8207068741986028</v>
+        <v>0.4332398747740414</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.28</v>
       </c>
       <c r="C27" t="n">
-        <v>32.75140148574432</v>
+        <v>32.58366905591168</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4714014857443161</v>
+        <v>0.3036690559116835</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2222193607619486</v>
+        <v>0.09221489551829315</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.45</v>
       </c>
       <c r="C28" t="n">
-        <v>32.28667916453107</v>
+        <v>32.34757370537619</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1633208354689302</v>
+        <v>-0.102426294623811</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02667369529826936</v>
+        <v>0.01049114583036374</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.85</v>
       </c>
       <c r="C29" t="n">
-        <v>33.77931662779437</v>
+        <v>33.72062393391511</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9293166277943641</v>
+        <v>0.8706239339151125</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8636293946950886</v>
+        <v>0.7579860343058262</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.9</v>
       </c>
       <c r="C30" t="n">
-        <v>32.6181679002533</v>
+        <v>32.77471947750555</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2818320997467012</v>
+        <v>-0.1252805224944495</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07942933244763453</v>
+        <v>0.01569520931648228</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.1</v>
       </c>
       <c r="C31" t="n">
-        <v>32.92095187517251</v>
+        <v>32.86561084658423</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1790481248274887</v>
+        <v>-0.2343891534157763</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03205823100423996</v>
+        <v>0.0549382752389643</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.4</v>
       </c>
       <c r="C32" t="n">
-        <v>33.56936814496778</v>
+        <v>33.13010734385114</v>
       </c>
       <c r="D32" t="n">
-        <v>0.169368144967784</v>
+        <v>-0.2698926561488548</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02868556852982828</v>
+        <v>0.07284204584308399</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.7</v>
       </c>
       <c r="C33" t="n">
-        <v>33.8643056819737</v>
+        <v>33.62096515789693</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1643056819737012</v>
+        <v>-0.07903484210306999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02699635712884304</v>
+        <v>0.006246506266257205</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.1</v>
       </c>
       <c r="C34" t="n">
-        <v>34.52482003942425</v>
+        <v>34.37819114985852</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4248200394242474</v>
+        <v>0.2781911498585217</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1804720658964191</v>
+        <v>0.07739031585960646</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.4</v>
       </c>
       <c r="C35" t="n">
-        <v>34.44874248754216</v>
+        <v>34.4586326617987</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04874248754216381</v>
+        <v>0.05863266179870408</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002375830091797995</v>
+        <v>0.003437789029601213</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.9</v>
       </c>
       <c r="C36" t="n">
-        <v>35.08705449938859</v>
+        <v>34.96321569009434</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1870544993885872</v>
+        <v>0.06321569009434569</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03498938574151497</v>
+        <v>0.003996223474104356</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>35.3</v>
       </c>
       <c r="C37" t="n">
-        <v>35.12051217537368</v>
+        <v>34.96888898563957</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.179487824626321</v>
+        <v>-0.331111014360431</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03221587918908895</v>
+        <v>0.1096345038307935</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>35.7</v>
       </c>
       <c r="C38" t="n">
-        <v>35.47297676200688</v>
+        <v>35.41775197422326</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.227023237993123</v>
+        <v>-0.2822480257767381</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05153955058888215</v>
+        <v>0.07966394805486623</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>36.3</v>
       </c>
       <c r="C39" t="n">
-        <v>35.67625688893011</v>
+        <v>35.70029691202298</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.6237431110698921</v>
+        <v>-0.5997030879770193</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3890554686071477</v>
+        <v>0.3596437937291726</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>36.8</v>
       </c>
       <c r="C40" t="n">
-        <v>36.07186189172979</v>
+        <v>36.2019066854108</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.7281381082702083</v>
+        <v>-0.5980933145891925</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5301851047153175</v>
+        <v>0.3577156129562867</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>37.3</v>
       </c>
       <c r="C41" t="n">
-        <v>36.74367428201054</v>
+        <v>37.00619347620768</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.5563257179894592</v>
+        <v>-0.2938065237923126</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3094983044964872</v>
+        <v>0.08632227342292277</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>37.9</v>
       </c>
       <c r="C42" t="n">
-        <v>38.30919573659418</v>
+        <v>38.39620462029304</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4091957365941781</v>
+        <v>0.4962046202930424</v>
       </c>
       <c r="E42" t="n">
-        <v>0.167441150846852</v>
+        <v>0.2462190252001623</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>38.5</v>
       </c>
       <c r="C43" t="n">
-        <v>38.66394966250266</v>
+        <v>38.65700476610574</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1639496625026595</v>
+        <v>0.157004766105743</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02687949183473596</v>
+        <v>0.02465049657991906</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>38.9</v>
       </c>
       <c r="C44" t="n">
-        <v>38.88523822790722</v>
+        <v>39.10367256545069</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.01476177209278262</v>
+        <v>0.2036725654506881</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0002179099153192558</v>
+        <v>0.04148251391726484</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>39.4</v>
       </c>
       <c r="C45" t="n">
-        <v>39.16660625984799</v>
+        <v>39.30916102749632</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2333937401520103</v>
+        <v>-0.09083897250368267</v>
       </c>
       <c r="E45" t="n">
-        <v>0.05447263794214411</v>
+        <v>0.008251718925524816</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>39.9</v>
       </c>
       <c r="C46" t="n">
-        <v>39.91002835172897</v>
+        <v>39.34982369782337</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01002835172896965</v>
+        <v>-0.5501763021766308</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0001005678383999286</v>
+        <v>0.3026939634767514</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.1</v>
       </c>
       <c r="C47" t="n">
-        <v>39.79467645854881</v>
+        <v>38.90599412809517</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.3053235414511875</v>
+        <v>-1.194005871904828</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09322246496429498</v>
+        <v>1.425650022143209</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.6</v>
       </c>
       <c r="C48" t="n">
-        <v>40.14733291543243</v>
+        <v>40.95974699129948</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.4526670845675724</v>
+        <v>0.3597469912994811</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2049074894509058</v>
+        <v>0.1294178977490289</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.9</v>
       </c>
       <c r="C49" t="n">
-        <v>40.46751621929954</v>
+        <v>40.68187491899255</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.4324837807004585</v>
+        <v>-0.2181250810074502</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1870422205689622</v>
+        <v>0.04757855096450671</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.2</v>
       </c>
       <c r="C50" t="n">
-        <v>41.47265485714376</v>
+        <v>41.56424182086959</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2726548571437561</v>
+        <v>0.3642418208695872</v>
       </c>
       <c r="E50" t="n">
-        <v>0.07434067112408208</v>
+        <v>0.1326721040703925</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.5</v>
       </c>
       <c r="C51" t="n">
-        <v>40.6695322347838</v>
+        <v>40.87756746623862</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.8304677652161985</v>
+        <v>-0.6224325337613834</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6896767090631869</v>
+        <v>0.3874222590846157</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>1.284493606314264</v>
+        <v>2.212005194477253</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>13.54673826378459</v>
+        <v>16.8021719279083</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.2709347652756917</v>
+        <v>0.336043438558166</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_4.xlsx
+++ b/full/sliding_window_results_window_4.xlsx
@@ -468,13 +468,13 @@
         <v>29.37</v>
       </c>
       <c r="C2" t="n">
-        <v>28.84443239150406</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5255676084959369</v>
+        <v>-29.37</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2762213111001384</v>
+        <v>862.5969</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.54</v>
       </c>
       <c r="C3" t="n">
-        <v>29.04879130937184</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4912086906281559</v>
+        <v>-29.54</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2412859777486273</v>
+        <v>872.6116</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.55</v>
       </c>
       <c r="C4" t="n">
-        <v>28.47224708949605</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.07775291050395</v>
+        <v>-29.55</v>
       </c>
       <c r="E4" t="n">
-        <v>1.161551336099735</v>
+        <v>873.2025</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.75</v>
       </c>
       <c r="C5" t="n">
-        <v>29.2989892953209</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4510107046790992</v>
+        <v>-29.75</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2034106557351376</v>
+        <v>885.0625</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.84</v>
       </c>
       <c r="C6" t="n">
-        <v>30.13510134947209</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2951013494720947</v>
+        <v>-29.84</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08708480646025134</v>
+        <v>890.4256</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.81</v>
       </c>
       <c r="C7" t="n">
-        <v>30.40673323534551</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.596733235345507</v>
+        <v>-29.81</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3560905541659163</v>
+        <v>888.6360999999999</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.92</v>
       </c>
       <c r="C8" t="n">
-        <v>31.51125945391331</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.59125945391331</v>
+        <v>-29.92</v>
       </c>
       <c r="E8" t="n">
-        <v>2.532106649668484</v>
+        <v>895.2064000000001</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.98</v>
       </c>
       <c r="C9" t="n">
-        <v>30.39166779290871</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4116677929087054</v>
+        <v>-29.98</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1694703717183247</v>
+        <v>898.8004000000001</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.04</v>
       </c>
       <c r="C10" t="n">
-        <v>29.83554248324082</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2044575167591773</v>
+        <v>-30.04</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04180287615932928</v>
+        <v>902.4015999999999</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.21</v>
       </c>
       <c r="C11" t="n">
-        <v>29.475613037933</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7343869620669992</v>
+        <v>-30.21</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5393242100539961</v>
+        <v>912.6441000000001</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.22</v>
       </c>
       <c r="C12" t="n">
-        <v>29.42990311504995</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7900968849500529</v>
+        <v>-30.22</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6242530876077772</v>
+        <v>913.2483999999999</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.38</v>
       </c>
       <c r="C13" t="n">
-        <v>30.01762340053315</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3623765994668524</v>
+        <v>-30.38</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1313167998411596</v>
+        <v>922.9444</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.44</v>
       </c>
       <c r="C14" t="n">
-        <v>30.17250046387866</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2674995361213455</v>
+        <v>-30.44</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07155600182513501</v>
+        <v>926.5936</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.48</v>
       </c>
       <c r="C15" t="n">
-        <v>30.43142600127064</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0485739987293563</v>
+        <v>-30.48</v>
       </c>
       <c r="E15" t="n">
-        <v>0.002359433352559508</v>
+        <v>929.0304</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.69</v>
       </c>
       <c r="C16" t="n">
-        <v>31.06219932137456</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3721993213745627</v>
+        <v>-30.69</v>
       </c>
       <c r="E16" t="n">
-        <v>0.138532334831685</v>
+        <v>941.8761000000001</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.75</v>
       </c>
       <c r="C17" t="n">
-        <v>30.91290018647103</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1629001864710276</v>
+        <v>-30.75</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02653647075229555</v>
+        <v>945.5625</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.94</v>
       </c>
       <c r="C18" t="n">
-        <v>31.71108018651416</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7710801865141583</v>
+        <v>-30.94</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5945646540347092</v>
+        <v>957.2836000000001</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.95</v>
       </c>
       <c r="C19" t="n">
-        <v>31.30334133364107</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3533413336410725</v>
+        <v>-30.95</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1248500980592517</v>
+        <v>957.9024999999999</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.02</v>
       </c>
       <c r="C20" t="n">
-        <v>31.59747167494887</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5774716749488711</v>
+        <v>-31.02</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3334735353682546</v>
+        <v>962.2404</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.12</v>
       </c>
       <c r="C21" t="n">
-        <v>31.68655281230452</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5665528123045185</v>
+        <v>-31.12</v>
       </c>
       <c r="E21" t="n">
-        <v>0.320982089130159</v>
+        <v>968.4544000000001</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.28</v>
       </c>
       <c r="C22" t="n">
-        <v>32.21713465211471</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9371346521147075</v>
+        <v>-31.28</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8782213561941538</v>
+        <v>978.4384000000001</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.38</v>
       </c>
       <c r="C23" t="n">
-        <v>32.3661729188649</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9861729188648987</v>
+        <v>-31.38</v>
       </c>
       <c r="E23" t="n">
-        <v>0.972537025902514</v>
+        <v>984.7044</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.58</v>
       </c>
       <c r="C24" t="n">
-        <v>32.88649103800541</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.306491038005412</v>
+        <v>-31.58</v>
       </c>
       <c r="E24" t="n">
-        <v>1.706918832388458</v>
+        <v>997.2963999999999</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.65</v>
       </c>
       <c r="C25" t="n">
-        <v>31.66498199413322</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01498199413322254</v>
+        <v>-31.65</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0002244601482079147</v>
+        <v>1001.7225</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.88</v>
       </c>
       <c r="C26" t="n">
-        <v>32.53820959790483</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6582095979048326</v>
+        <v>-31.88</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4332398747740414</v>
+        <v>1016.3344</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.28</v>
       </c>
       <c r="C27" t="n">
-        <v>32.58366905591168</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3036690559116835</v>
+        <v>-32.28</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09221489551829315</v>
+        <v>1041.9984</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.45</v>
       </c>
       <c r="C28" t="n">
-        <v>32.34757370537619</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.102426294623811</v>
+        <v>-32.45</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01049114583036374</v>
+        <v>1053.0025</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.85</v>
       </c>
       <c r="C29" t="n">
-        <v>33.72062393391511</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8706239339151125</v>
+        <v>-32.85</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7579860343058262</v>
+        <v>1079.1225</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.9</v>
       </c>
       <c r="C30" t="n">
-        <v>32.77471947750555</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1252805224944495</v>
+        <v>-32.9</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01569520931648228</v>
+        <v>1082.41</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.1</v>
       </c>
       <c r="C31" t="n">
-        <v>32.86561084658423</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2343891534157763</v>
+        <v>-33.1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0549382752389643</v>
+        <v>1095.61</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.4</v>
       </c>
       <c r="C32" t="n">
-        <v>33.13010734385114</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2698926561488548</v>
+        <v>-33.4</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07284204584308399</v>
+        <v>1115.56</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.7</v>
       </c>
       <c r="C33" t="n">
-        <v>33.62096515789693</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.07903484210306999</v>
+        <v>-33.7</v>
       </c>
       <c r="E33" t="n">
-        <v>0.006246506266257205</v>
+        <v>1135.69</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.1</v>
       </c>
       <c r="C34" t="n">
-        <v>34.37819114985852</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2781911498585217</v>
+        <v>-34.1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07739031585960646</v>
+        <v>1162.81</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.4</v>
       </c>
       <c r="C35" t="n">
-        <v>34.4586326617987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05863266179870408</v>
+        <v>-34.4</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003437789029601213</v>
+        <v>1183.36</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.9</v>
       </c>
       <c r="C36" t="n">
-        <v>34.96321569009434</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.06321569009434569</v>
+        <v>-34.9</v>
       </c>
       <c r="E36" t="n">
-        <v>0.003996223474104356</v>
+        <v>1218.01</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>35.3</v>
       </c>
       <c r="C37" t="n">
-        <v>34.96888898563957</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.331111014360431</v>
+        <v>-35.3</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1096345038307935</v>
+        <v>1246.09</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>35.7</v>
       </c>
       <c r="C38" t="n">
-        <v>35.41775197422326</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2822480257767381</v>
+        <v>-35.7</v>
       </c>
       <c r="E38" t="n">
-        <v>0.07966394805486623</v>
+        <v>1274.49</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>36.3</v>
       </c>
       <c r="C39" t="n">
-        <v>35.70029691202298</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.5997030879770193</v>
+        <v>-36.3</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3596437937291726</v>
+        <v>1317.69</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>36.8</v>
       </c>
       <c r="C40" t="n">
-        <v>36.2019066854108</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.5980933145891925</v>
+        <v>-36.8</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3577156129562867</v>
+        <v>1354.24</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>37.3</v>
       </c>
       <c r="C41" t="n">
-        <v>37.00619347620768</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2938065237923126</v>
+        <v>-37.3</v>
       </c>
       <c r="E41" t="n">
-        <v>0.08632227342292277</v>
+        <v>1391.29</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>37.9</v>
       </c>
       <c r="C42" t="n">
-        <v>38.39620462029304</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4962046202930424</v>
+        <v>-37.9</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2462190252001623</v>
+        <v>1436.41</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>38.5</v>
       </c>
       <c r="C43" t="n">
-        <v>38.65700476610574</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.157004766105743</v>
+        <v>-38.5</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02465049657991906</v>
+        <v>1482.25</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>38.9</v>
       </c>
       <c r="C44" t="n">
-        <v>39.10367256545069</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2036725654506881</v>
+        <v>-38.9</v>
       </c>
       <c r="E44" t="n">
-        <v>0.04148251391726484</v>
+        <v>1513.21</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>39.4</v>
       </c>
       <c r="C45" t="n">
-        <v>39.30916102749632</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.09083897250368267</v>
+        <v>-39.4</v>
       </c>
       <c r="E45" t="n">
-        <v>0.008251718925524816</v>
+        <v>1552.36</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>39.9</v>
       </c>
       <c r="C46" t="n">
-        <v>39.34982369782337</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.5501763021766308</v>
+        <v>-39.9</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3026939634767514</v>
+        <v>1592.01</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.1</v>
       </c>
       <c r="C47" t="n">
-        <v>38.90599412809517</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.194005871904828</v>
+        <v>-40.1</v>
       </c>
       <c r="E47" t="n">
-        <v>1.425650022143209</v>
+        <v>1608.01</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.6</v>
       </c>
       <c r="C48" t="n">
-        <v>40.95974699129948</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3597469912994811</v>
+        <v>-40.6</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1294178977490289</v>
+        <v>1648.36</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.9</v>
       </c>
       <c r="C49" t="n">
-        <v>40.68187491899255</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.2181250810074502</v>
+        <v>-40.9</v>
       </c>
       <c r="E49" t="n">
-        <v>0.04757855096450671</v>
+        <v>1672.81</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.2</v>
       </c>
       <c r="C50" t="n">
-        <v>41.56424182086959</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3642418208695872</v>
+        <v>-41.2</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1326721040703925</v>
+        <v>1697.44</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.5</v>
       </c>
       <c r="C51" t="n">
-        <v>40.87756746623862</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.6224325337613834</v>
+        <v>-41.5</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3874222590846157</v>
+        <v>1722.25</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>2.212005194477253</v>
+        <v>-1677.15</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>16.8021719279083</v>
+        <v>56961.7035</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.336043438558166</v>
+        <v>1139.23407</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_4.xlsx
+++ b/full/sliding_window_results_window_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,234 +462,880 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.238484621047974</v>
+        <v>29.37</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.236284494400024</v>
+        <v>29.4006175994873</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002200126647949219</v>
+        <v>0.03061759948730014</v>
       </c>
       <c r="E2" t="n">
-        <v>4.840557267016266e-06</v>
+        <v>0.0009374373983647218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.235703587532043</v>
+        <v>29.53999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.229751825332642</v>
+        <v>29.51205253601074</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005951762199401855</v>
+        <v>-0.02794746398924985</v>
       </c>
       <c r="E3" t="n">
-        <v>3.542347258189693e-05</v>
+        <v>0.0007810607434304174</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.23553991317749</v>
+        <v>29.55</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.247407913208008</v>
+        <v>29.59291648864746</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01186800003051758</v>
+        <v>0.04291648864746378</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001408494281349704</v>
+        <v>0.001841824997827888</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.232268095016479</v>
+        <v>29.75</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.22920036315918</v>
+        <v>29.80640983581543</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003067731857299805</v>
+        <v>0.05640983581542969</v>
       </c>
       <c r="E5" t="n">
-        <v>9.410979146196041e-06</v>
+        <v>0.003182069576723734</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.230795860290527</v>
+        <v>29.84</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.231304883956909</v>
+        <v>29.8635311126709</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0005090236663818359</v>
+        <v>0.02353111267089503</v>
       </c>
       <c r="E6" t="n">
-        <v>2.591050929368066e-07</v>
+        <v>0.0005537132635303564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.231286525726318</v>
+        <v>29.81</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.231183767318726</v>
+        <v>29.73377799987793</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001027584075927734</v>
+        <v>-0.07622200012207259</v>
       </c>
       <c r="E7" t="n">
-        <v>1.055929033100256e-08</v>
+        <v>0.005809793302609233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.229487061500549</v>
+        <v>29.92</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.218083143234253</v>
+        <v>29.96292686462402</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01140391826629639</v>
+        <v>0.04292686462402173</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000130049345898442</v>
+        <v>0.001842715706449088</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.228505492210388</v>
+        <v>29.98</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.223162651062012</v>
+        <v>29.96395683288574</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005342841148376465</v>
+        <v>-0.01604316711426179</v>
       </c>
       <c r="E9" t="n">
-        <v>2.85459518636344e-05</v>
+        <v>0.000257383211056131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.227523922920227</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.228303670883179</v>
+        <v>30.0295467376709</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0007797479629516602</v>
+        <v>-0.0104532623290936</v>
       </c>
       <c r="E10" t="n">
-        <v>6.080068715164089e-07</v>
+        <v>0.0001092706933208474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.224742889404297</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.224625825881958</v>
+        <v>30.1018123626709</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0001170635223388672</v>
+        <v>-0.1081876373291095</v>
       </c>
       <c r="E11" t="n">
-        <v>1.370386826238246e-08</v>
+        <v>0.01170456487085493</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.224579334259033</v>
+        <v>30.22</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.237327575683594</v>
+        <v>30.1059627532959</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01274824142456055</v>
+        <v>-0.1140372467041004</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001625176664674655</v>
+        <v>0.01300449363585186</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>38</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.34580039978027</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.03419960021972202</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.00116961265518881</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30.44</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.4521541595459</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01215415954590071</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0001477235942672094</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36</v>
+      </c>
+      <c r="B15" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30.54403495788574</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.06403495788573821</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.004100475831428266</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30.72134208679199</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03134208679199446</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0009823264044769137</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30.81378746032715</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.06378746032714844</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.004068840094987536</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30.91616630554199</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.02383369445800554</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0005680449915175639</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="C19" t="n">
+        <v>31.0012264251709</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0512264251708956</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.002624146635789366</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31</v>
+      </c>
+      <c r="B20" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31.04450798034668</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.02450798034668367</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0006006411006734329</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>31.21162223815918</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.09162223815917514</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.00839463452529661</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29</v>
+      </c>
+      <c r="B22" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>31.24455070495605</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.03544929504394645</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001256652519112766</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="C23" t="n">
+        <v>31.39487266540527</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.01487266540527798</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0002211961762573526</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="C24" t="n">
+        <v>31.51578330993652</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.06421669006347486</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.00412378328270839</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>31.65000000000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>31.63163566589355</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.018364334106451</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0003372487671733594</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="C26" t="n">
+        <v>32.03912734985352</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1591273498535202</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.02532151347140461</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="C27" t="n">
+        <v>32.3321418762207</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.05214187622070199</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.002718775255815007</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="C28" t="n">
+        <v>32.28768539428711</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.1623146057128935</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.02634603122773207</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32.84999999999999</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32.77740097045898</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.07259902954100994</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.005270619090296434</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" t="n">
+        <v>32.90000000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>32.90703964233398</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.007039642333978691</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.955656419034495e-05</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="n">
+        <v>33.09999999999999</v>
+      </c>
+      <c r="C31" t="n">
+        <v>33.06281661987305</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.03718338012694744</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.00138260375766507</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19</v>
+      </c>
+      <c r="B32" t="n">
+        <v>33.40000000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>33.36980056762695</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.03019943237305256</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0009120057156545749</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33.68502426147461</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.01497573852539347</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0002242727443809541</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" t="n">
+        <v>34.09999999999999</v>
+      </c>
+      <c r="C34" t="n">
+        <v>34.12018203735352</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.02018203735352131</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0004073146317389294</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34.40000000000001</v>
+      </c>
+      <c r="C35" t="n">
+        <v>34.57470321655273</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1747032165527287</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.03052121387386962</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34.90000000000001</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34.9118766784668</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.01187667846679119</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0001410554914035415</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35.3488655090332</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.04886550903320597</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.002387837973074334</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>35.7580451965332</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.05804519653320028</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.003369244840577846</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>36.32283401489258</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.02283401489258097</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0005213922361146094</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>36.57858657836914</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.2214134216308565</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.04902390327828345</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>37.26656723022461</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.03343276977538778</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.001117750094854083</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="n">
+        <v>37.90000000000001</v>
+      </c>
+      <c r="C42" t="n">
+        <v>38.10602951049805</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.2060295104980412</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.04244815919606246</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>38.33364486694336</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.1663551330566406</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.02767403029429261</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>38.90000000000001</v>
+      </c>
+      <c r="C44" t="n">
+        <v>38.82902145385742</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.07097854614258381</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.005037954012514899</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>39.40000000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>39.46354293823242</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.06354293823241619</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.004037704999208659</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="C46" t="n">
+        <v>39.87958908081055</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.02041091918945881</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0004166056221586179</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>40.09999999999999</v>
+      </c>
+      <c r="C47" t="n">
+        <v>39.99684524536133</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.1031547546386662</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.01064090340456342</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>40.59999999999999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>40.62594223022461</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.02594223022461506</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0006729993090269311</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>40.90000000000001</v>
+      </c>
+      <c r="C49" t="n">
+        <v>40.97230911254883</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.07230911254882244</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.005228607757598271</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>41.20000000000001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>41.17596817016602</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.02403182983399432</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0005775288451700596</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>0</v>
       </c>
-      <c r="B13" t="n">
-        <v>-1.221961855888367</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-1.22366738319397</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.001705527305603027</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.908823489633505e-06</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B51" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>41.54241561889648</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.04241561889648438</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.001799084726371802</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>0.0005756616592407227</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0.0005154375685378909</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>0.0290008544921605</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0.31686832239292</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>MSE</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>4.295313192415051e-05</v>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>0.006337366447858399</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_4.xlsx
+++ b/full/sliding_window_results_window_4.xlsx
@@ -468,13 +468,13 @@
         <v>29.37</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>28.27788229977268</v>
       </c>
       <c r="D2" t="n">
-        <v>-29.37</v>
+        <v>-1.092117700227323</v>
       </c>
       <c r="E2" t="n">
-        <v>862.5969</v>
+        <v>1.192721071149818</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.54</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>29.19175924173338</v>
       </c>
       <c r="D3" t="n">
-        <v>-29.54</v>
+        <v>-0.3482407582666198</v>
       </c>
       <c r="E3" t="n">
-        <v>872.6116</v>
+        <v>0.1212716257181103</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.55</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>30.09155300362499</v>
       </c>
       <c r="D4" t="n">
-        <v>-29.55</v>
+        <v>0.541553003624994</v>
       </c>
       <c r="E4" t="n">
-        <v>873.2025</v>
+        <v>0.2932796557352528</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.75</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>29.78267262292169</v>
       </c>
       <c r="D5" t="n">
-        <v>-29.75</v>
+        <v>0.03267262292168738</v>
       </c>
       <c r="E5" t="n">
-        <v>885.0625</v>
+        <v>0.001067500288582771</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.84</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>29.75900732942098</v>
       </c>
       <c r="D6" t="n">
-        <v>-29.84</v>
+        <v>-0.08099267057901827</v>
       </c>
       <c r="E6" t="n">
-        <v>890.4256</v>
+        <v>0.006559812687521371</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.81</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>29.84561044431663</v>
       </c>
       <c r="D7" t="n">
-        <v>-29.81</v>
+        <v>0.03561044431662808</v>
       </c>
       <c r="E7" t="n">
-        <v>888.6360999999999</v>
+        <v>0.001268103744427669</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.92</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>29.62121671700346</v>
       </c>
       <c r="D8" t="n">
-        <v>-29.92</v>
+        <v>-0.2987832829965384</v>
       </c>
       <c r="E8" t="n">
-        <v>895.2064000000001</v>
+        <v>0.08927145019818958</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.98</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>29.83432592272917</v>
       </c>
       <c r="D9" t="n">
-        <v>-29.98</v>
+        <v>-0.1456740772708294</v>
       </c>
       <c r="E9" t="n">
-        <v>898.8004000000001</v>
+        <v>0.02122093678870757</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.04</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>29.88982670961775</v>
       </c>
       <c r="D10" t="n">
-        <v>-30.04</v>
+        <v>-0.1501732903822486</v>
       </c>
       <c r="E10" t="n">
-        <v>902.4015999999999</v>
+        <v>0.02255201714423116</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.21</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>29.78883031723733</v>
       </c>
       <c r="D11" t="n">
-        <v>-30.21</v>
+        <v>-0.4211696827626668</v>
       </c>
       <c r="E11" t="n">
-        <v>912.6441000000001</v>
+        <v>0.1773839016784053</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.22</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>30.16589280729863</v>
       </c>
       <c r="D12" t="n">
-        <v>-30.22</v>
+        <v>-0.05410719270137321</v>
       </c>
       <c r="E12" t="n">
-        <v>913.2483999999999</v>
+        <v>0.002927588302023534</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.38</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>29.82036427603519</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.38</v>
+        <v>-0.5596357239648135</v>
       </c>
       <c r="E13" t="n">
-        <v>922.9444</v>
+        <v>0.313192143537621</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.44</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>30.05698656662453</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.44</v>
+        <v>-0.3830134333754707</v>
       </c>
       <c r="E14" t="n">
-        <v>926.5936</v>
+        <v>0.1466992901460661</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.48</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>30.19023929771748</v>
       </c>
       <c r="D15" t="n">
-        <v>-30.48</v>
+        <v>-0.2897607022825248</v>
       </c>
       <c r="E15" t="n">
-        <v>929.0304</v>
+        <v>0.08396126458726198</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.69</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>29.96611093429973</v>
       </c>
       <c r="D16" t="n">
-        <v>-30.69</v>
+        <v>-0.7238890657002663</v>
       </c>
       <c r="E16" t="n">
-        <v>941.8761000000001</v>
+        <v>0.5240153794404045</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.75</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>29.95353145807043</v>
       </c>
       <c r="D17" t="n">
-        <v>-30.75</v>
+        <v>-0.7964685419295705</v>
       </c>
       <c r="E17" t="n">
-        <v>945.5625</v>
+        <v>0.634362138283416</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.94</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>30.54948913695124</v>
       </c>
       <c r="D18" t="n">
-        <v>-30.94</v>
+        <v>-0.3905108630487568</v>
       </c>
       <c r="E18" t="n">
-        <v>957.2836000000001</v>
+        <v>0.1524987341590849</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.95</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>30.77586982982714</v>
       </c>
       <c r="D19" t="n">
-        <v>-30.95</v>
+        <v>-0.1741301701728553</v>
       </c>
       <c r="E19" t="n">
-        <v>957.9024999999999</v>
+        <v>0.03032131616442753</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.02</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>30.70160810776703</v>
       </c>
       <c r="D20" t="n">
-        <v>-31.02</v>
+        <v>-0.3183918922329703</v>
       </c>
       <c r="E20" t="n">
-        <v>962.2404</v>
+        <v>0.1013733970396914</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.12</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>30.78623034825427</v>
       </c>
       <c r="D21" t="n">
-        <v>-31.12</v>
+        <v>-0.3337696517457296</v>
       </c>
       <c r="E21" t="n">
-        <v>968.4544000000001</v>
+        <v>0.1114021804264656</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.28</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>31.27141867503842</v>
       </c>
       <c r="D22" t="n">
-        <v>-31.28</v>
+        <v>-0.008581324961582482</v>
       </c>
       <c r="E22" t="n">
-        <v>978.4384000000001</v>
+        <v>7.363913809627858e-05</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.38</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>31.3953411648987</v>
       </c>
       <c r="D23" t="n">
-        <v>-31.38</v>
+        <v>0.01534116489870385</v>
       </c>
       <c r="E23" t="n">
-        <v>984.7044</v>
+        <v>0.0002353513404492232</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.58</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>31.58726286396578</v>
       </c>
       <c r="D24" t="n">
-        <v>-31.58</v>
+        <v>0.00726286396577791</v>
       </c>
       <c r="E24" t="n">
-        <v>997.2963999999999</v>
+        <v>5.274919298539523e-05</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.65</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>31.5674891895968</v>
       </c>
       <c r="D25" t="n">
-        <v>-31.65</v>
+        <v>-0.08251081040319974</v>
       </c>
       <c r="E25" t="n">
-        <v>1001.7225</v>
+        <v>0.006808033833392775</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.88</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>31.90485810887399</v>
       </c>
       <c r="D26" t="n">
-        <v>-31.88</v>
+        <v>0.02485810887398898</v>
       </c>
       <c r="E26" t="n">
-        <v>1016.3344</v>
+        <v>0.0006179255767910898</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.28</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>32.29400698910788</v>
       </c>
       <c r="D27" t="n">
-        <v>-32.28</v>
+        <v>0.01400698910787668</v>
       </c>
       <c r="E27" t="n">
-        <v>1041.9984</v>
+        <v>0.0001961957438681759</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.45</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.24138097474844</v>
       </c>
       <c r="D28" t="n">
-        <v>-32.45</v>
+        <v>-0.2086190252515649</v>
       </c>
       <c r="E28" t="n">
-        <v>1053.0025</v>
+        <v>0.04352189769691309</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.85</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>33.52817252141637</v>
       </c>
       <c r="D29" t="n">
-        <v>-32.85</v>
+        <v>0.6781725214163714</v>
       </c>
       <c r="E29" t="n">
-        <v>1079.1225</v>
+        <v>0.4599179688042387</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.9</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>33.28296385789197</v>
       </c>
       <c r="D30" t="n">
-        <v>-32.9</v>
+        <v>0.3829638578919727</v>
       </c>
       <c r="E30" t="n">
-        <v>1082.41</v>
+        <v>0.1466613164515031</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>33.3784015109037</v>
       </c>
       <c r="D31" t="n">
-        <v>-33.1</v>
+        <v>0.2784015109036986</v>
       </c>
       <c r="E31" t="n">
-        <v>1095.61</v>
+        <v>0.0775074012734622</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.4</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>33.25763537194656</v>
       </c>
       <c r="D32" t="n">
-        <v>-33.4</v>
+        <v>-0.1423646280534356</v>
       </c>
       <c r="E32" t="n">
-        <v>1115.56</v>
+        <v>0.02026768732079307</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.7</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>33.94127858902861</v>
       </c>
       <c r="D33" t="n">
-        <v>-33.7</v>
+        <v>0.2412785890286031</v>
       </c>
       <c r="E33" t="n">
-        <v>1135.69</v>
+        <v>0.05821535752363356</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>34.80115297861217</v>
       </c>
       <c r="D34" t="n">
-        <v>-34.1</v>
+        <v>0.7011529786121642</v>
       </c>
       <c r="E34" t="n">
-        <v>1162.81</v>
+        <v>0.49161549941671</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.4</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>34.71223657580823</v>
       </c>
       <c r="D35" t="n">
-        <v>-34.4</v>
+        <v>0.3122365758082282</v>
       </c>
       <c r="E35" t="n">
-        <v>1183.36</v>
+        <v>0.09749167927244741</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.9</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>35.20854410149703</v>
       </c>
       <c r="D36" t="n">
-        <v>-34.9</v>
+        <v>0.3085441014970343</v>
       </c>
       <c r="E36" t="n">
-        <v>1218.01</v>
+        <v>0.09519946256861218</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>35.3</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>35.00070622077768</v>
       </c>
       <c r="D37" t="n">
-        <v>-35.3</v>
+        <v>-0.2992937792223174</v>
       </c>
       <c r="E37" t="n">
-        <v>1246.09</v>
+        <v>0.08957676628117725</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>35.7</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>35.39205346563158</v>
       </c>
       <c r="D38" t="n">
-        <v>-35.7</v>
+        <v>-0.3079465343684191</v>
       </c>
       <c r="E38" t="n">
-        <v>1274.49</v>
+        <v>0.09483106802951995</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>36.3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>35.98064298204398</v>
       </c>
       <c r="D39" t="n">
-        <v>-36.3</v>
+        <v>-0.3193570179560155</v>
       </c>
       <c r="E39" t="n">
-        <v>1317.69</v>
+        <v>0.1019889049177588</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>36.8</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>36.42452701316659</v>
       </c>
       <c r="D40" t="n">
-        <v>-36.8</v>
+        <v>-0.3754729868334081</v>
       </c>
       <c r="E40" t="n">
-        <v>1354.24</v>
+        <v>0.1409799638416007</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>37.3</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>37.51103321642204</v>
       </c>
       <c r="D41" t="n">
-        <v>-37.3</v>
+        <v>0.2110332164220452</v>
       </c>
       <c r="E41" t="n">
-        <v>1391.29</v>
+        <v>0.04453501843343377</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>37.9</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>38.35515710999172</v>
       </c>
       <c r="D42" t="n">
-        <v>-37.9</v>
+        <v>0.455157109991724</v>
       </c>
       <c r="E42" t="n">
-        <v>1436.41</v>
+        <v>0.2071679947760183</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>38.5</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>38.90910449529751</v>
       </c>
       <c r="D43" t="n">
-        <v>-38.5</v>
+        <v>0.4091044952975125</v>
       </c>
       <c r="E43" t="n">
-        <v>1482.25</v>
+        <v>0.1673664880726324</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>38.9</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>39.76024284485575</v>
       </c>
       <c r="D44" t="n">
-        <v>-38.9</v>
+        <v>0.8602428448557546</v>
       </c>
       <c r="E44" t="n">
-        <v>1513.21</v>
+        <v>0.7400177521255219</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>39.4</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>40.40243169098477</v>
       </c>
       <c r="D45" t="n">
-        <v>-39.4</v>
+        <v>1.002431690984771</v>
       </c>
       <c r="E45" t="n">
-        <v>1552.36</v>
+        <v>1.004869295090588</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>39.9</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>40.64866100100531</v>
       </c>
       <c r="D46" t="n">
-        <v>-39.9</v>
+        <v>0.7486610010053099</v>
       </c>
       <c r="E46" t="n">
-        <v>1592.01</v>
+        <v>0.5604932944262726</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>39.58036945558321</v>
       </c>
       <c r="D47" t="n">
-        <v>-40.1</v>
+        <v>-0.5196305444167919</v>
       </c>
       <c r="E47" t="n">
-        <v>1608.01</v>
+        <v>0.2700159026908915</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.6</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>40.98050448704024</v>
       </c>
       <c r="D48" t="n">
-        <v>-40.6</v>
+        <v>0.3805044870402341</v>
       </c>
       <c r="E48" t="n">
-        <v>1648.36</v>
+        <v>0.1447836646577517</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.9</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>41.08319000266954</v>
       </c>
       <c r="D49" t="n">
-        <v>-40.9</v>
+        <v>0.1831900026695408</v>
       </c>
       <c r="E49" t="n">
-        <v>1672.81</v>
+        <v>0.03355857707806636</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.2</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>40.76523899808499</v>
       </c>
       <c r="D50" t="n">
-        <v>-41.2</v>
+        <v>-0.4347610019150139</v>
       </c>
       <c r="E50" t="n">
-        <v>1697.44</v>
+        <v>0.1890171287861467</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.5</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>40.21752257365866</v>
       </c>
       <c r="D51" t="n">
-        <v>-41.5</v>
+        <v>-1.282477426341345</v>
       </c>
       <c r="E51" t="n">
-        <v>1722.25</v>
+        <v>1.644748349075119</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1677.15</v>
+        <v>-2.717463598228047</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>56961.7035</v>
+        <v>10.9596818406561</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>1139.23407</v>
+        <v>0.2191936368131221</v>
       </c>
     </row>
   </sheetData>
